--- a/examples/interaction_lists/MachineReadingOutput.xlsx
+++ b/examples/interaction_lists/MachineReadingOutput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luohaomiao/Framework/GUI/extension/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/gaz11_pitt_edu/Documents/Personal/Github/BioRECIPE/examples/interaction_lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08C148D-4CC9-ED4B-8F93-BEB8F79ACCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{F08C148D-4CC9-ED4B-8F93-BEB8F79ACCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0DC53A0-BF92-FA48-B407-AF986A3906A7}"/>
   <bookViews>
-    <workbookView xWindow="35300" yWindow="-1580" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -692,6 +692,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -981,21 +985,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD118"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="12" max="12" width="9.83203125" customWidth="1"/>
-    <col min="29" max="29" width="14.33203125" customWidth="1"/>
-    <col min="30" max="30" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1080,10 +1082,8 @@
       <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
